--- a/natmiOut/OldD2/LR-pairs_lrc2p/Wnt5b-Fzd2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Wnt5b-Fzd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Wnt5b</t>
   </si>
   <si>
@@ -88,10 +91,13 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.359302779767229</v>
+        <v>0.373344</v>
       </c>
       <c r="H2">
-        <v>0.359302779767229</v>
+        <v>1.120032</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.7330560889695228</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.8046553730764257</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.105217781177898</v>
+        <v>0.1341725</v>
       </c>
       <c r="N2">
-        <v>0.105217781177898</v>
+        <v>0.268345</v>
       </c>
       <c r="O2">
-        <v>0.01393559333010025</v>
+        <v>0.01633512969336317</v>
       </c>
       <c r="P2">
-        <v>0.01393559333010025</v>
+        <v>0.01188426112752495</v>
       </c>
       <c r="Q2">
-        <v>0.03780504125815878</v>
+        <v>0.05009249783999999</v>
       </c>
       <c r="R2">
-        <v>0.03780504125815878</v>
+        <v>0.30055498704</v>
       </c>
       <c r="S2">
-        <v>0.01393559333010025</v>
+        <v>0.01197456628582673</v>
       </c>
       <c r="T2">
-        <v>0.01393559333010025</v>
+        <v>0.009562734571306249</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.359302779767229</v>
+        <v>0.373344</v>
       </c>
       <c r="H3">
-        <v>0.359302779767229</v>
+        <v>1.120032</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.7330560889695228</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.8046553730764257</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.46368627355349</v>
+        <v>5.923689</v>
       </c>
       <c r="N3">
-        <v>5.46368627355349</v>
+        <v>17.771067</v>
       </c>
       <c r="O3">
-        <v>0.7236391904402391</v>
+        <v>0.7211927040052828</v>
       </c>
       <c r="P3">
-        <v>0.7236391904402391</v>
+        <v>0.787031622511101</v>
       </c>
       <c r="Q3">
-        <v>1.963117665863822</v>
+        <v>2.211573746016</v>
       </c>
       <c r="R3">
-        <v>1.963117665863822</v>
+        <v>19.904163714144</v>
       </c>
       <c r="S3">
-        <v>0.7236391904402391</v>
+        <v>0.5286747029914673</v>
       </c>
       <c r="T3">
-        <v>0.7236391904402391</v>
+        <v>0.6332892238346146</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.359302779767229</v>
+        <v>0.373344</v>
       </c>
       <c r="H4">
-        <v>0.359302779767229</v>
+        <v>1.120032</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.7330560889695228</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.8046553730764257</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.149987742647476</v>
+        <v>0.007277666666666668</v>
       </c>
       <c r="N4">
-        <v>0.149987742647476</v>
+        <v>0.021833</v>
       </c>
       <c r="O4">
-        <v>0.01986516121738955</v>
+        <v>0.00088603572911786</v>
       </c>
       <c r="P4">
-        <v>0.01986516121738955</v>
+        <v>0.0009669234500260939</v>
       </c>
       <c r="Q4">
-        <v>0.05389101286424989</v>
+        <v>0.002717073184</v>
       </c>
       <c r="R4">
-        <v>0.05389101286424989</v>
+        <v>0.024453658656</v>
       </c>
       <c r="S4">
-        <v>0.01986516121738955</v>
+        <v>0.0006495138862743979</v>
       </c>
       <c r="T4">
-        <v>0.01986516121738955</v>
+        <v>0.0007780401494170912</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +714,557 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.373344</v>
+      </c>
+      <c r="H5">
+        <v>1.120032</v>
+      </c>
+      <c r="I5">
+        <v>0.7330560889695228</v>
+      </c>
+      <c r="J5">
+        <v>0.8046553730764257</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.039371</v>
+      </c>
+      <c r="N5">
+        <v>0.118113</v>
+      </c>
+      <c r="O5">
+        <v>0.004793310038624915</v>
+      </c>
+      <c r="P5">
+        <v>0.005230899530661476</v>
+      </c>
+      <c r="Q5">
+        <v>0.014698926624</v>
+      </c>
+      <c r="R5">
+        <v>0.132290339616</v>
+      </c>
+      <c r="S5">
+        <v>0.003513765110132733</v>
+      </c>
+      <c r="T5">
+        <v>0.00420907141336971</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.373344</v>
+      </c>
+      <c r="H6">
+        <v>1.120032</v>
+      </c>
+      <c r="I6">
+        <v>0.7330560889695228</v>
+      </c>
+      <c r="J6">
+        <v>0.8046553730764257</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.1820473333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.5461419999999999</v>
+      </c>
+      <c r="O6">
+        <v>0.02216375785150397</v>
+      </c>
+      <c r="P6">
+        <v>0.02418712530775207</v>
+      </c>
+      <c r="Q6">
+        <v>0.06796627961599998</v>
+      </c>
+      <c r="R6">
+        <v>0.6116965165439998</v>
+      </c>
+      <c r="S6">
+        <v>0.01624727764749105</v>
+      </c>
+      <c r="T6">
+        <v>0.0194623003381555</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.373344</v>
+      </c>
+      <c r="H7">
+        <v>1.120032</v>
+      </c>
+      <c r="I7">
+        <v>0.7330560889695228</v>
+      </c>
+      <c r="J7">
+        <v>0.8046553730764257</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.927182</v>
+      </c>
+      <c r="N7">
+        <v>3.854364</v>
+      </c>
+      <c r="O7">
+        <v>0.2346290626821072</v>
+      </c>
+      <c r="P7">
+        <v>0.1706991680729343</v>
+      </c>
+      <c r="Q7">
+        <v>0.7195018366079999</v>
+      </c>
+      <c r="R7">
+        <v>4.317011019648</v>
+      </c>
+      <c r="S7">
+        <v>0.1719962630483305</v>
+      </c>
+      <c r="T7">
+        <v>0.1373540027695625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.135954</v>
+      </c>
+      <c r="H8">
+        <v>0.271908</v>
+      </c>
+      <c r="I8">
+        <v>0.2669439110304773</v>
+      </c>
+      <c r="J8">
+        <v>0.1953446269235743</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.1341725</v>
+      </c>
+      <c r="N8">
+        <v>0.268345</v>
+      </c>
+      <c r="O8">
+        <v>0.01633512969336317</v>
+      </c>
+      <c r="P8">
+        <v>0.01188426112752495</v>
+      </c>
+      <c r="Q8">
+        <v>0.018241288065</v>
+      </c>
+      <c r="R8">
+        <v>0.07296515226</v>
+      </c>
+      <c r="S8">
+        <v>0.004360563407536446</v>
+      </c>
+      <c r="T8">
+        <v>0.002321526556218697</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.135954</v>
+      </c>
+      <c r="H9">
+        <v>0.271908</v>
+      </c>
+      <c r="I9">
+        <v>0.2669439110304773</v>
+      </c>
+      <c r="J9">
+        <v>0.1953446269235743</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>5.923689</v>
+      </c>
+      <c r="N9">
+        <v>17.771067</v>
+      </c>
+      <c r="O9">
+        <v>0.7211927040052828</v>
+      </c>
+      <c r="P9">
+        <v>0.787031622511101</v>
+      </c>
+      <c r="Q9">
+        <v>0.805349214306</v>
+      </c>
+      <c r="R9">
+        <v>4.832095285836</v>
+      </c>
+      <c r="S9">
+        <v>0.1925180010138155</v>
+      </c>
+      <c r="T9">
+        <v>0.1537423986764864</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.359302779767229</v>
-      </c>
-      <c r="H5">
-        <v>0.359302779767229</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1.83139893553398</v>
-      </c>
-      <c r="N5">
-        <v>1.83139893553398</v>
-      </c>
-      <c r="O5">
-        <v>0.242560055012271</v>
-      </c>
-      <c r="P5">
-        <v>0.242560055012271</v>
-      </c>
-      <c r="Q5">
-        <v>0.6580267284001032</v>
-      </c>
-      <c r="R5">
-        <v>0.6580267284001032</v>
-      </c>
-      <c r="S5">
-        <v>0.242560055012271</v>
-      </c>
-      <c r="T5">
-        <v>0.242560055012271</v>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>0.135954</v>
+      </c>
+      <c r="H10">
+        <v>0.271908</v>
+      </c>
+      <c r="I10">
+        <v>0.2669439110304773</v>
+      </c>
+      <c r="J10">
+        <v>0.1953446269235743</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.007277666666666668</v>
+      </c>
+      <c r="N10">
+        <v>0.021833</v>
+      </c>
+      <c r="O10">
+        <v>0.00088603572911786</v>
+      </c>
+      <c r="P10">
+        <v>0.0009669234500260939</v>
+      </c>
+      <c r="Q10">
+        <v>0.0009894278940000001</v>
+      </c>
+      <c r="R10">
+        <v>0.005936567364000001</v>
+      </c>
+      <c r="S10">
+        <v>0.0002365218428434621</v>
+      </c>
+      <c r="T10">
+        <v>0.0001888833006090027</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.135954</v>
+      </c>
+      <c r="H11">
+        <v>0.271908</v>
+      </c>
+      <c r="I11">
+        <v>0.2669439110304773</v>
+      </c>
+      <c r="J11">
+        <v>0.1953446269235743</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.039371</v>
+      </c>
+      <c r="N11">
+        <v>0.118113</v>
+      </c>
+      <c r="O11">
+        <v>0.004793310038624915</v>
+      </c>
+      <c r="P11">
+        <v>0.005230899530661476</v>
+      </c>
+      <c r="Q11">
+        <v>0.005352644933999999</v>
+      </c>
+      <c r="R11">
+        <v>0.03211586960399999</v>
+      </c>
+      <c r="S11">
+        <v>0.001279544928492183</v>
+      </c>
+      <c r="T11">
+        <v>0.001021828117291766</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.135954</v>
+      </c>
+      <c r="H12">
+        <v>0.271908</v>
+      </c>
+      <c r="I12">
+        <v>0.2669439110304773</v>
+      </c>
+      <c r="J12">
+        <v>0.1953446269235743</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.1820473333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.5461419999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.02216375785150397</v>
+      </c>
+      <c r="P12">
+        <v>0.02418712530775207</v>
+      </c>
+      <c r="Q12">
+        <v>0.024750063156</v>
+      </c>
+      <c r="R12">
+        <v>0.148500378936</v>
+      </c>
+      <c r="S12">
+        <v>0.005916480204012918</v>
+      </c>
+      <c r="T12">
+        <v>0.00472482496959657</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.135954</v>
+      </c>
+      <c r="H13">
+        <v>0.271908</v>
+      </c>
+      <c r="I13">
+        <v>0.2669439110304773</v>
+      </c>
+      <c r="J13">
+        <v>0.1953446269235743</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.927182</v>
+      </c>
+      <c r="N13">
+        <v>3.854364</v>
+      </c>
+      <c r="O13">
+        <v>0.2346290626821072</v>
+      </c>
+      <c r="P13">
+        <v>0.1706991680729343</v>
+      </c>
+      <c r="Q13">
+        <v>0.262008101628</v>
+      </c>
+      <c r="R13">
+        <v>1.048032406512</v>
+      </c>
+      <c r="S13">
+        <v>0.06263279963377669</v>
+      </c>
+      <c r="T13">
+        <v>0.03334516530337187</v>
       </c>
     </row>
   </sheetData>
